--- a/data/trans_bre/P6-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P6-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -625,37 +625,37 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,05</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,53</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,26</t>
+          <t>1,3</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>39,59%</t>
+          <t>39,58%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>21,61%</t>
+          <t>15,78%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>13,42%</t>
+          <t>6,71%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>23,32%</t>
+          <t>15,64%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 5,19</t>
+          <t>-0,19; 5,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 5,68</t>
+          <t>-2,24; 4,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 5,71</t>
+          <t>-2,67; 3,31</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 5,82</t>
+          <t>-1,62; 4,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 100,03</t>
+          <t>-2,92; 100,84</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-21,17; 77,42</t>
+          <t>-23,01; 72,35</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-18,17; 61,64</t>
+          <t>-28,24; 54,9</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-14,07; 75,44</t>
+          <t>-17,01; 71,67</t>
         </is>
       </c>
     </row>
@@ -725,37 +725,37 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>2,62</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,22</t>
+          <t>2,71</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,59</t>
+          <t>4,86</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>37,91%</t>
+          <t>37,93%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>6,34%</t>
+          <t>47,76%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>55,77%</t>
+          <t>45,87%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>60,65%</t>
+          <t>68,61%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 5,15</t>
+          <t>-0,87; 4,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,75; 5,69</t>
+          <t>-0,27; 5,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,11; 11,2</t>
+          <t>-0,45; 5,65</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,13; 10,81</t>
+          <t>1,39; 8,74</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-12,51; 125,3</t>
+          <t>-13,87; 106,44</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-49,47; 97,29</t>
+          <t>-5,69; 144,61</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 149,51</t>
+          <t>-8,73; 116,7</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,19; 155,34</t>
+          <t>11,37; 155,2</t>
         </is>
       </c>
     </row>
@@ -825,37 +825,37 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-4,38</t>
+          <t>-2,57</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-4,33</t>
+          <t>-2,01</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-29,48%</t>
+          <t>-29,46%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-38,98%</t>
+          <t>-29,74%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-25,48%</t>
+          <t>-20,6%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,04%</t>
+          <t>-5,56%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,61; 3,12</t>
+          <t>-8,86; 3,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-14,12; 2,71</t>
+          <t>-9,6; 3,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-15,78; 6,02</t>
+          <t>-8,46; 4,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,31; 9,61</t>
+          <t>-7,96; 6,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-71,44; 70,18</t>
+          <t>-70,16; 66,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-82,61; 52,7</t>
+          <t>-73,79; 88,15</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-65,24; 60,39</t>
+          <t>-62,91; 80,21</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-49,14; 113,0</t>
+          <t>-54,39; 101,49</t>
         </is>
       </c>
     </row>
@@ -925,37 +925,37 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,28</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,28</t>
+          <t>2,44</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>28,29%</t>
+          <t>28,3%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>19,42%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>20,33%</t>
+          <t>14,96%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>32,92%</t>
+          <t>29,96%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 3,59</t>
+          <t>-0,12; 3,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 3,83</t>
+          <t>-0,82; 3,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 5,6</t>
+          <t>-1,1; 3,02</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,42; 6,2</t>
+          <t>0,14; 4,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 65,9</t>
+          <t>-1,52; 67,8</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-23,5; 48,32</t>
+          <t>-10,33; 60,8</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-7,4; 57,19</t>
+          <t>-13,76; 48,9</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,1; 73,27</t>
+          <t>1,1; 68,89</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P6-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P6-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>2,59</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1,22</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,51</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>1,3</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>39,58%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>15,78%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>6,71%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>15,64%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>2.593181951739255</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>1.480501406345021</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.3303483992139866</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>1.765061717166189</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.395821952363322</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.1476527206701235</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.02635958015518686</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.1682228291586954</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-0,19; 5,28</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-2,24; 4,26</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-2,67; 3,31</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-1,62; 4,79</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-2,92; 100,84</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-23,01; 72,35</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-28,24; 54,9</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-17,01; 71,67</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-0.1866890041689367</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-2.445275319236886</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-4.493279637189906</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-2.007935881699547</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.02922222939335228</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.2052036534747168</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.2919083333233028</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.1761465939857201</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>5.276003019730714</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>5.443402232690859</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>4.818195483558656</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>5.71685099110463</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>1.008416118886782</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.7021647528486693</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.4997438844079405</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.6685103831882947</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>2,1</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>2,62</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2,71</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>4,86</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>37,93%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>47,76%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>45,87%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>68,61%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-0,87; 4,72</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-0,27; 5,89</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-0,45; 5,65</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>1,39; 8,74</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-13,87; 106,44</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-5,69; 144,61</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-8,73; 116,7</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>11,37; 155,2</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>2.096179733192054</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>2.375645523317588</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>5.38950779099536</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>5.500611937515905</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.379282007781364</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.3202978945544631</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.589074594952233</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.5932089993578136</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-2,54</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-2,57</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-2,01</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-0,61</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-29,46%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-29,74%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-20,6%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-5,56%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-0.8680092026934226</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-1.856087101692304</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.07105664874914235</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>0.6599923443734381</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.1387026853430793</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.2092506537919255</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.00926639344544548</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.04393881374694285</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-8,86; 3,21</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-9,6; 3,71</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-8,46; 4,8</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-7,96; 6,42</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-70,16; 66,19</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-73,79; 88,15</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-62,91; 80,21</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-54,39; 101,49</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>4.724861849990153</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>6.651227349316585</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>10.59031528399757</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>10.00421528256163</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>1.064372420805789</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>1.219247793430913</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>1.657119530337216</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1.43060659722178</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,97 +827,197 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>1,81</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>1,35</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1,08</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>2,44</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>28,3%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>19,42%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>14,96%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>29,96%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-2.536972521991357</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-3.666204459208596</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-3.302143583318501</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.9797493381607875</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.2945542757709474</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.3492730569853118</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.210005351070844</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.07686605922056358</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-0,12; 3,68</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-0,82; 3,46</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-1,1; 3,02</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>0,14; 4,8</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-1,52; 67,8</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-10,33; 60,8</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-13,76; 48,9</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>1,1; 68,89</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-8.861441540830031</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-12.25494907423594</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-15.05568025112785</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-8.036913810396065</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.7016034349116118</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.7565166841349953</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.6870073212928558</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.4731289826224855</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>3.209677904802308</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>4.199644878766331</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>5.426335783002111</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>9.699221875355187</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0.6618585788124219</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.995669176145728</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.5442171642472997</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>1.268224000674726</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>1.808725879023582</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1.219871823010926</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>1.922216431902526</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>3.098222081299465</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.282959775193372</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.1345656359614057</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.1669671167937112</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.3004983690394663</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-0.1206754416589193</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-1.642953415380219</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-1.255728621274717</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0.08183440543450424</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.01520537504600291</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.156735834052829</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.1005462181388755</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.005708751029578823</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>3.675846138003667</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>3.733224485117813</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>5.229210061585846</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>5.692809223023959</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.6779663307955407</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.4975657813338628</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.5234100623306269</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.6672968637828525</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1016,13 +1025,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
